--- a/resources/experiment 1/predictions/single/LinearRegression/average time/Infarto de Miocardio.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/average time/Infarto de Miocardio.xlsx
@@ -474,7 +474,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23.60949611788432</v>
+        <v>23.60949611788431</v>
       </c>
       <c r="B4" t="n">
         <v>20.03147693287811</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27.97295313418295</v>
+        <v>27.97295313418294</v>
       </c>
       <c r="B5" t="n">
         <v>23.86298512369317</v>
@@ -540,13 +540,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.975633313045162</v>
+        <v>8.975633313045163</v>
       </c>
       <c r="B10" t="n">
         <v>4.40607809797965</v>
       </c>
       <c r="C10" t="n">
-        <v>14.32636314461397</v>
+        <v>14.32636314461398</v>
       </c>
     </row>
     <row r="11">
@@ -650,7 +650,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>26.40570635779986</v>
+        <v>26.40570635779985</v>
       </c>
       <c r="B20" t="n">
         <v>21.18997829478829</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>22.9335852194601</v>
+        <v>22.93358521946009</v>
       </c>
       <c r="B34" t="n">
         <v>17.21567265239021</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>25.47151388013137</v>
+        <v>25.47151388013136</v>
       </c>
       <c r="B35" t="n">
         <v>20.55545717343054</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>16.85406806739317</v>
+        <v>16.85406806739318</v>
       </c>
       <c r="B41" t="n">
         <v>12.98921050413355</v>
@@ -917,7 +917,7 @@
         <v>14.72389007262843</v>
       </c>
       <c r="B44" t="n">
-        <v>10.74931026381105</v>
+        <v>10.74931026381106</v>
       </c>
       <c r="C44" t="n">
         <v>19.00318595228805</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20.6209601915969</v>
+        <v>20.62096019159689</v>
       </c>
       <c r="B45" t="n">
         <v>14.81448955817917</v>
@@ -953,7 +953,7 @@
         <v>5.73963348225055</v>
       </c>
       <c r="C47" t="n">
-        <v>17.20698977508387</v>
+        <v>17.20698977508388</v>
       </c>
     </row>
     <row r="48">
@@ -980,7 +980,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>28.71833138566306</v>
+        <v>28.71833138566305</v>
       </c>
       <c r="B50" t="n">
         <v>23.59116138899932</v>
@@ -1005,7 +1005,7 @@
         <v>12.48424385800461</v>
       </c>
       <c r="B52" t="n">
-        <v>8.412640311155435</v>
+        <v>8.412640311155437</v>
       </c>
       <c r="C52" t="n">
         <v>16.96414057798504</v>
@@ -1192,7 +1192,7 @@
         <v>11.0264653014806</v>
       </c>
       <c r="B69" t="n">
-        <v>5.836403194583674</v>
+        <v>5.836403194583673</v>
       </c>
       <c r="C69" t="n">
         <v>17.22665654245835</v>
@@ -1214,7 +1214,7 @@
         <v>19.16669309525637</v>
       </c>
       <c r="B71" t="n">
-        <v>15.39039359834459</v>
+        <v>15.39039359834458</v>
       </c>
       <c r="C71" t="n">
         <v>23.07472111176924</v>
